--- a/Bitacoras/NRC_124_Grupo_43/Parcial_02/Bitacora_Laboratorio_Parcial_02_NRC_125.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Parcial_02/Bitacora_Laboratorio_Parcial_02_NRC_125.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\Parcial_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF06FEA-A335-4649-9380-92643C29ED49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEDB4BC-3F3B-42EC-A17D-2B81E1929AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04245548-DE8E-4B3A-ABC0-A87ABB1250CF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Apaterno</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>Faltas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> j</t>
   </si>
 </sst>
 </file>
@@ -581,11 +578,11 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6705" ySplit="720" topLeftCell="I1" activePane="bottomLeft"/>
+      <pane xSplit="6705" ySplit="720" topLeftCell="P1" activePane="bottomRight"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
       <selection pane="bottomLeft" sqref="A1:D15"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,8 +1259,9 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>57</v>
+      <c r="P12" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="Q12" s="1">
         <v>2</v>
